--- a/rpabasic/excel/range.xlsx
+++ b/rpabasic/excel/range.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,16 +25,39 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="00ff0000"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <strike val="1"/>
+      <color rgb="00cc33ff"/>
+    </font>
+    <font>
+      <color rgb="000000ff"/>
+      <sz val="20"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <color rgb="00ff0000"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000ff00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +65,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -266,6 +313,408 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet'!$C$2:$C$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet'!$D$2:$D$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>성적표</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet'!$B$2:$B$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet'!$C$2:$C$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>번호</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>점수</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet'!$C$2:$C$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet'!$D$2:$D$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>성적표</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet'!$C$2:$C$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet'!$D$2:$D$11</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>번호</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>점수</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -307,6 +756,94 @@
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="6" name="Chart 6"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -607,135 +1144,152 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="50" customHeight="1">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>번호</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="B1" s="5" t="n"/>
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>영어</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>수학</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="8" t="n">
         <v>85</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="7" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="B3" s="7" t="n"/>
+      <c r="C3" s="7" t="n">
         <v>56</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="7" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="B4" s="7" t="n"/>
+      <c r="C4" s="7" t="n">
         <v>38</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="7" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="7" t="n">
         <v>37</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="7" t="n">
         <v>57</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="n">
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="7" t="n">
         <v>40</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="7" t="n">
         <v>71</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="7" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="C8" t="n">
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n">
         <v>39</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="7" t="n">
         <v>70</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="C9" t="n">
+      <c r="B9" s="7" t="n"/>
+      <c r="C9" s="7" t="n">
         <v>46</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="8" t="n">
         <v>81</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="C10" t="n">
+      <c r="B10" s="7" t="n"/>
+      <c r="C10" s="7" t="n">
         <v>48</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="7" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="C11" t="n">
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n">
         <v>70</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="8" t="n">
         <v>92</v>
       </c>
     </row>
